--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.59</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.34</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>89.02</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.56</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>005571</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>中银证券新能源灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005571</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>74.65</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.69</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>74.65</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -665,7 +735,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,15 +756,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -706,26 +786,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -734,26 +824,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.92</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -772,15 +872,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>93.46</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.23</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -790,26 +900,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005572</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中银证券新能源灵活配置混合C</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -818,25 +938,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>005572</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>中银证券新能源灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>69.25</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1372,4 +1373,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5601</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1771,4 +1772,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.23</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.46</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +2030,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1951,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,17 +1963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1982,14 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.69</v>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0081</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1998,14 +2041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.23</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2798</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2014,14 +2079,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>1.46</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="5">
@@ -2030,14 +2201,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="6">
@@ -2046,13 +2217,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2122,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2133,17 +2134,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2153,14 +2174,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.34</v>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2169,14 +2212,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="4">
@@ -2185,14 +2318,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>2.23</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="5">
@@ -2201,14 +2334,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>1.46</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="6">
@@ -2217,14 +2350,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7">
@@ -2233,13 +2366,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.69</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.09</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.34</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.23</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>1.46</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -656,32 +673,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>0.6566</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0373</t>
+          <t>0.4344</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -737,7 +754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,32 +805,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>21.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0081</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -826,74 +843,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2798</t>
+          <t>1.0373</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证800汽车与零部件ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -968,22 +947,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>22.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>1.0081</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1006,22 +985,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3674</t>
+          <t>0.2798</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1034,32 +1013,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>516110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
+          <t>国泰中证800汽车与零部件ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>97.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1072,6 +1051,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
+++ b/数据整理/stocks/A股/上证主板/600733-北汽蓝谷.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.09</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.34</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>2.23</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>1.46</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.04</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,318 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>6</v>
       </c>
       <c r="D9" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.69</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005571</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005572</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银证券新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +984,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6566</t>
+          <t>0.5172</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1022,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.07</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4344</t>
+          <t>0.3818</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -805,32 +1106,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.86</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0537</t>
+          <t>0.6566</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -843,32 +1144,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0373</t>
+          <t>0.4344</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -886,7 +1187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,32 +1238,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004854</t>
+          <t>004855</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数A</t>
+          <t>广发中证全指汽车指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.01</t>
+          <t>21.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0081</t>
+          <t>1.0537</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -975,74 +1276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004855</t>
+          <t>004854</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发中证全指汽车指数C</t>
+          <t>广发中证全指汽车指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>21.52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2798</t>
+          <t>1.0373</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>516110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰中证800汽车与零部件ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>97.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1117,22 +1380,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.55</t>
+          <t>22.01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2976</t>
+          <t>1.0081</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1155,22 +1418,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>94.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.71</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3674</t>
+          <t>0.2798</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1183,32 +1446,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>516110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
+          <t>国泰中证800汽车与零部件ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>70.09</t>
+          <t>97.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0224</t>
+          <t>0.0475</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1221,6 +1484,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发中证全指汽车指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +2051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1978,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2260,288 +2693,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004854</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>33.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4522</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004855</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发中证全指汽车指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1580</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003980</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005571</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0303</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005572</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中银证券新能源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>74.65</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003981</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中银证券瑞益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.02</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>